--- a/notebooks/NVDA_AAPL_ohlcv.xlsx
+++ b/notebooks/NVDA_AAPL_ohlcv.xlsx
@@ -531,7 +531,7 @@
         <v>47.56900024414062</v>
       </c>
       <c r="G3" t="n">
-        <v>47.5478401184082</v>
+        <v>47.54784393310547</v>
       </c>
       <c r="H3" t="n">
         <v>320896000</v>
@@ -587,7 +587,7 @@
         <v>49.09700012207031</v>
       </c>
       <c r="G5" t="n">
-        <v>49.07515335083008</v>
+        <v>49.07515716552734</v>
       </c>
       <c r="H5" t="n">
         <v>415039000</v>
@@ -615,7 +615,7 @@
         <v>52.25299835205078</v>
       </c>
       <c r="G6" t="n">
-        <v>52.22975158691406</v>
+        <v>52.22975540161133</v>
       </c>
       <c r="H6" t="n">
         <v>642510000</v>
@@ -671,7 +671,7 @@
         <v>54.34999847412109</v>
       </c>
       <c r="G8" t="n">
-        <v>54.32582855224609</v>
+        <v>54.32582473754883</v>
       </c>
       <c r="H8" t="n">
         <v>533796000</v>
@@ -699,7 +699,7 @@
         <v>54.82199859619141</v>
       </c>
       <c r="G9" t="n">
-        <v>54.79761123657227</v>
+        <v>54.79761505126953</v>
       </c>
       <c r="H9" t="n">
         <v>596759000</v>
@@ -783,7 +783,7 @@
         <v>56.05300140380859</v>
       </c>
       <c r="G12" t="n">
-        <v>56.02807235717773</v>
+        <v>56.02806854248047</v>
       </c>
       <c r="H12" t="n">
         <v>474394000</v>
@@ -839,7 +839,7 @@
         <v>59.49100112915039</v>
       </c>
       <c r="G14" t="n">
-        <v>59.46453857421875</v>
+        <v>59.46453475952148</v>
       </c>
       <c r="H14" t="n">
         <v>543501000</v>
@@ -951,7 +951,7 @@
         <v>61.61700057983398</v>
       </c>
       <c r="G18" t="n">
-        <v>61.58959579467773</v>
+        <v>61.58959197998047</v>
       </c>
       <c r="H18" t="n">
         <v>482777000</v>
@@ -1119,7 +1119,7 @@
         <v>66.16000366210938</v>
       </c>
       <c r="G24" t="n">
-        <v>66.13056945800781</v>
+        <v>66.13057708740234</v>
       </c>
       <c r="H24" t="n">
         <v>476578000</v>
@@ -1147,7 +1147,7 @@
         <v>69.33200073242188</v>
       </c>
       <c r="G25" t="n">
-        <v>69.30116271972656</v>
+        <v>69.30117034912109</v>
       </c>
       <c r="H25" t="n">
         <v>680078000</v>
@@ -1231,7 +1231,7 @@
         <v>69.64099884033203</v>
       </c>
       <c r="G28" t="n">
-        <v>69.61002349853516</v>
+        <v>69.61001586914062</v>
       </c>
       <c r="H28" t="n">
         <v>414422000</v>
@@ -1287,7 +1287,7 @@
         <v>72.24800109863281</v>
       </c>
       <c r="G30" t="n">
-        <v>72.21586608886719</v>
+        <v>72.21585845947266</v>
       </c>
       <c r="H30" t="n">
         <v>613710000</v>
@@ -1399,7 +1399,7 @@
         <v>72.61299896240234</v>
       </c>
       <c r="G34" t="n">
-        <v>72.58070373535156</v>
+        <v>72.58069610595703</v>
       </c>
       <c r="H34" t="n">
         <v>495327000</v>
@@ -1483,7 +1483,7 @@
         <v>78.53800201416016</v>
       </c>
       <c r="G37" t="n">
-        <v>78.50306701660156</v>
+        <v>78.50307464599609</v>
       </c>
       <c r="H37" t="n">
         <v>865100000</v>
@@ -1567,7 +1567,7 @@
         <v>78.70099639892578</v>
       </c>
       <c r="G40" t="n">
-        <v>78.66598510742188</v>
+        <v>78.66599273681641</v>
       </c>
       <c r="H40" t="n">
         <v>391705000</v>
@@ -1623,7 +1623,7 @@
         <v>79.11199951171875</v>
       </c>
       <c r="G42" t="n">
-        <v>79.07681274414062</v>
+        <v>79.07682037353516</v>
       </c>
       <c r="H42" t="n">
         <v>507289000</v>
@@ -1819,7 +1819,7 @@
         <v>85.77400207519531</v>
       </c>
       <c r="G49" t="n">
-        <v>85.73987579345703</v>
+        <v>85.7398681640625</v>
       </c>
       <c r="H49" t="n">
         <v>678364000</v>
@@ -1847,7 +1847,7 @@
         <v>91.91300201416016</v>
       </c>
       <c r="G50" t="n">
-        <v>91.87643432617188</v>
+        <v>91.87642669677734</v>
       </c>
       <c r="H50" t="n">
         <v>668075000</v>
@@ -1875,7 +1875,7 @@
         <v>90.88800048828125</v>
       </c>
       <c r="G51" t="n">
-        <v>90.85182952880859</v>
+        <v>90.85183715820312</v>
       </c>
       <c r="H51" t="n">
         <v>635713000</v>
@@ -1903,7 +1903,7 @@
         <v>87.94400024414062</v>
       </c>
       <c r="G52" t="n">
-        <v>87.90901184082031</v>
+        <v>87.90900421142578</v>
       </c>
       <c r="H52" t="n">
         <v>602318000</v>
@@ -1987,7 +1987,7 @@
         <v>89.39800262451172</v>
       </c>
       <c r="G55" t="n">
-        <v>89.3624267578125</v>
+        <v>89.36243438720703</v>
       </c>
       <c r="H55" t="n">
         <v>672171000</v>
@@ -2015,7 +2015,7 @@
         <v>90.37200164794922</v>
       </c>
       <c r="G56" t="n">
-        <v>90.33604431152344</v>
+        <v>90.33603668212891</v>
       </c>
       <c r="H56" t="n">
         <v>479063000</v>
@@ -2071,7 +2071,7 @@
         <v>94.28900146484375</v>
       </c>
       <c r="G58" t="n">
-        <v>94.25148010253906</v>
+        <v>94.25148773193359</v>
       </c>
       <c r="H58" t="n">
         <v>586719000</v>
@@ -2099,7 +2099,7 @@
         <v>95.00199890136719</v>
       </c>
       <c r="G59" t="n">
-        <v>94.96419525146484</v>
+        <v>94.96418762207031</v>
       </c>
       <c r="H59" t="n">
         <v>552136000</v>
@@ -2127,7 +2127,7 @@
         <v>92.56099700927734</v>
       </c>
       <c r="G60" t="n">
-        <v>92.52416229248047</v>
+        <v>92.524169921875</v>
       </c>
       <c r="H60" t="n">
         <v>513648000</v>
@@ -2183,7 +2183,7 @@
         <v>90.35600280761719</v>
       </c>
       <c r="G62" t="n">
-        <v>90.32005310058594</v>
+        <v>90.32004547119141</v>
       </c>
       <c r="H62" t="n">
         <v>435212000</v>
@@ -2267,7 +2267,7 @@
         <v>88.96399688720703</v>
       </c>
       <c r="G65" t="n">
-        <v>88.92860412597656</v>
+        <v>88.92859649658203</v>
       </c>
       <c r="H65" t="n">
         <v>370067000</v>
@@ -2295,7 +2295,7 @@
         <v>85.90499877929688</v>
       </c>
       <c r="G66" t="n">
-        <v>85.87080383300781</v>
+        <v>85.87081146240234</v>
       </c>
       <c r="H66" t="n">
         <v>434965000</v>
@@ -2323,7 +2323,7 @@
         <v>88.00800323486328</v>
       </c>
       <c r="G67" t="n">
-        <v>87.97298431396484</v>
+        <v>87.97297668457031</v>
       </c>
       <c r="H67" t="n">
         <v>399678000</v>
@@ -2463,7 +2463,7 @@
         <v>88.18599700927734</v>
       </c>
       <c r="G72" t="n">
-        <v>88.15090942382812</v>
+        <v>88.15090179443359</v>
       </c>
       <c r="H72" t="n">
         <v>426805000</v>
@@ -2491,7 +2491,7 @@
         <v>86.00099945068359</v>
       </c>
       <c r="G73" t="n">
-        <v>85.96676635742188</v>
+        <v>85.96677398681641</v>
       </c>
       <c r="H73" t="n">
         <v>443077000</v>
@@ -2519,7 +2519,7 @@
         <v>87.41500091552734</v>
       </c>
       <c r="G74" t="n">
-        <v>87.38021087646484</v>
+        <v>87.38021850585938</v>
       </c>
       <c r="H74" t="n">
         <v>370453000</v>
@@ -2631,7 +2631,7 @@
         <v>79.51799774169922</v>
       </c>
       <c r="G78" t="n">
-        <v>79.48635101318359</v>
+        <v>79.48635864257812</v>
       </c>
       <c r="H78" t="n">
         <v>596341000</v>
@@ -2659,7 +2659,7 @@
         <v>82.42299652099609</v>
       </c>
       <c r="G79" t="n">
-        <v>82.39019775390625</v>
+        <v>82.39020538330078</v>
       </c>
       <c r="H79" t="n">
         <v>438559000</v>
@@ -2687,7 +2687,7 @@
         <v>79.677001953125</v>
       </c>
       <c r="G80" t="n">
-        <v>79.64530181884766</v>
+        <v>79.64529418945312</v>
       </c>
       <c r="H80" t="n">
         <v>512208000</v>
@@ -2771,7 +2771,7 @@
         <v>87.75700378417969</v>
       </c>
       <c r="G83" t="n">
-        <v>87.72208404541016</v>
+        <v>87.72206878662109</v>
       </c>
       <c r="H83" t="n">
         <v>388971000</v>
@@ -2911,7 +2911,7 @@
         <v>92.13999938964844</v>
       </c>
       <c r="G88" t="n">
-        <v>92.10332489013672</v>
+        <v>92.10333251953125</v>
       </c>
       <c r="H88" t="n">
         <v>376203000</v>
@@ -2939,7 +2939,7 @@
         <v>90.55400085449219</v>
       </c>
       <c r="G89" t="n">
-        <v>90.51795959472656</v>
+        <v>90.51796722412109</v>
       </c>
       <c r="H89" t="n">
         <v>437342000</v>
@@ -2995,7 +2995,7 @@
         <v>88.74700164794922</v>
       </c>
       <c r="G91" t="n">
-        <v>88.71168518066406</v>
+        <v>88.71169281005859</v>
       </c>
       <c r="H91" t="n">
         <v>378013000</v>
@@ -3051,7 +3051,7 @@
         <v>90.39900207519531</v>
       </c>
       <c r="G93" t="n">
-        <v>90.36302947998047</v>
+        <v>90.363037109375</v>
       </c>
       <c r="H93" t="n">
         <v>289680000</v>
@@ -3107,7 +3107,7 @@
         <v>94.62999725341797</v>
       </c>
       <c r="G95" t="n">
-        <v>94.59234619140625</v>
+        <v>94.59233856201172</v>
       </c>
       <c r="H95" t="n">
         <v>417735000</v>
@@ -3163,7 +3163,7 @@
         <v>92.47899627685547</v>
       </c>
       <c r="G97" t="n">
-        <v>92.44219207763672</v>
+        <v>92.44219970703125</v>
       </c>
       <c r="H97" t="n">
         <v>359691000</v>
@@ -3191,7 +3191,7 @@
         <v>94.77999877929688</v>
       </c>
       <c r="G98" t="n">
-        <v>94.74227905273438</v>
+        <v>94.74228668212891</v>
       </c>
       <c r="H98" t="n">
         <v>318764000</v>
@@ -3219,7 +3219,7 @@
         <v>95.38600158691406</v>
       </c>
       <c r="G99" t="n">
-        <v>95.34804534912109</v>
+        <v>95.34805297851562</v>
       </c>
       <c r="H99" t="n">
         <v>328946000</v>
@@ -3247,7 +3247,7 @@
         <v>94.94999694824219</v>
       </c>
       <c r="G100" t="n">
-        <v>94.91221618652344</v>
+        <v>94.91222381591797</v>
       </c>
       <c r="H100" t="n">
         <v>548648000</v>
@@ -3275,7 +3275,7 @@
         <v>103.7990036010742</v>
       </c>
       <c r="G101" t="n">
-        <v>103.7577056884766</v>
+        <v>103.757698059082</v>
       </c>
       <c r="H101" t="n">
         <v>835065000</v>
@@ -3331,7 +3331,7 @@
         <v>113.9010009765625</v>
       </c>
       <c r="G103" t="n">
-        <v>113.8556747436523</v>
+        <v>113.8556671142578</v>
       </c>
       <c r="H103" t="n">
         <v>652728000</v>
@@ -3415,7 +3415,7 @@
         <v>109.6330032348633</v>
       </c>
       <c r="G106" t="n">
-        <v>109.5893707275391</v>
+        <v>109.5893783569336</v>
       </c>
       <c r="H106" t="n">
         <v>613263000</v>
@@ -3443,7 +3443,7 @@
         <v>115</v>
       </c>
       <c r="G107" t="n">
-        <v>114.9542388916016</v>
+        <v>114.954231262207</v>
       </c>
       <c r="H107" t="n">
         <v>438392000</v>
@@ -3471,7 +3471,7 @@
         <v>116.4369964599609</v>
       </c>
       <c r="G108" t="n">
-        <v>116.3906631469727</v>
+        <v>116.3906707763672</v>
       </c>
       <c r="H108" t="n">
         <v>403324000</v>
@@ -3611,7 +3611,7 @@
         <v>120.9100036621094</v>
       </c>
       <c r="G113" t="n">
-        <v>120.8718185424805</v>
+        <v>120.871826171875</v>
       </c>
       <c r="H113" t="n">
         <v>222551200</v>
@@ -3639,7 +3639,7 @@
         <v>125.1999969482422</v>
       </c>
       <c r="G114" t="n">
-        <v>125.1604690551758</v>
+        <v>125.1604537963867</v>
       </c>
       <c r="H114" t="n">
         <v>299595000</v>
@@ -3779,7 +3779,7 @@
         <v>130.7799987792969</v>
       </c>
       <c r="G119" t="n">
-        <v>130.7387084960938</v>
+        <v>130.7386932373047</v>
       </c>
       <c r="H119" t="n">
         <v>517768400</v>
@@ -3807,7 +3807,7 @@
         <v>126.5699996948242</v>
       </c>
       <c r="G120" t="n">
-        <v>126.5300216674805</v>
+        <v>126.530029296875</v>
       </c>
       <c r="H120" t="n">
         <v>649445800</v>
@@ -3863,7 +3863,7 @@
         <v>126.0899963378906</v>
       </c>
       <c r="G122" t="n">
-        <v>126.050178527832</v>
+        <v>126.0501708984375</v>
       </c>
       <c r="H122" t="n">
         <v>414192600</v>
@@ -3891,7 +3891,7 @@
         <v>126.4000015258789</v>
       </c>
       <c r="G123" t="n">
-        <v>126.3600845336914</v>
+        <v>126.3600921630859</v>
       </c>
       <c r="H123" t="n">
         <v>362975900</v>
@@ -3947,7 +3947,7 @@
         <v>123.5400009155273</v>
       </c>
       <c r="G125" t="n">
-        <v>123.5009918212891</v>
+        <v>123.5009841918945</v>
       </c>
       <c r="H125" t="n">
         <v>315516700</v>
@@ -3975,7 +3975,7 @@
         <v>124.3000030517578</v>
       </c>
       <c r="G126" t="n">
-        <v>124.2607574462891</v>
+        <v>124.2607498168945</v>
       </c>
       <c r="H126" t="n">
         <v>284885500</v>
@@ -4003,7 +4003,7 @@
         <v>122.6699981689453</v>
       </c>
       <c r="G127" t="n">
-        <v>122.6312561035156</v>
+        <v>122.6312637329102</v>
       </c>
       <c r="H127" t="n">
         <v>218374000</v>
@@ -4171,7 +4171,7 @@
         <v>127.4000015258789</v>
       </c>
       <c r="G133" t="n">
-        <v>127.3597717285156</v>
+        <v>127.3597640991211</v>
       </c>
       <c r="H133" t="n">
         <v>374782700</v>
@@ -4199,7 +4199,7 @@
         <v>129.2400054931641</v>
       </c>
       <c r="G134" t="n">
-        <v>129.1992034912109</v>
+        <v>129.1991882324219</v>
       </c>
       <c r="H134" t="n">
         <v>252680500</v>
@@ -4227,7 +4227,7 @@
         <v>128.4400024414062</v>
       </c>
       <c r="G135" t="n">
-        <v>128.3994445800781</v>
+        <v>128.3994293212891</v>
       </c>
       <c r="H135" t="n">
         <v>208326200</v>
@@ -4283,7 +4283,7 @@
         <v>117.9899978637695</v>
       </c>
       <c r="G137" t="n">
-        <v>117.9527359008789</v>
+        <v>117.9527282714844</v>
       </c>
       <c r="H137" t="n">
         <v>390086200</v>
@@ -4339,7 +4339,7 @@
         <v>117.9300003051758</v>
       </c>
       <c r="G139" t="n">
-        <v>117.8927536010742</v>
+        <v>117.8927612304688</v>
       </c>
       <c r="H139" t="n">
         <v>217223800</v>
@@ -4367,7 +4367,7 @@
         <v>123.5400009155273</v>
       </c>
       <c r="G140" t="n">
-        <v>123.5009918212891</v>
+        <v>123.5009841918945</v>
       </c>
       <c r="H140" t="n">
         <v>258068900</v>
@@ -4395,7 +4395,7 @@
         <v>122.5899963378906</v>
       </c>
       <c r="G141" t="n">
-        <v>122.5512771606445</v>
+        <v>122.5512847900391</v>
       </c>
       <c r="H141" t="n">
         <v>173911000</v>
@@ -4451,7 +4451,7 @@
         <v>112.2799987792969</v>
       </c>
       <c r="G143" t="n">
-        <v>112.2445297241211</v>
+        <v>112.2445373535156</v>
       </c>
       <c r="H143" t="n">
         <v>460067000</v>
@@ -4563,7 +4563,7 @@
         <v>117.0199966430664</v>
       </c>
       <c r="G147" t="n">
-        <v>116.9830322265625</v>
+        <v>116.983039855957</v>
       </c>
       <c r="H147" t="n">
         <v>473174200</v>
@@ -4675,7 +4675,7 @@
         <v>104.25</v>
       </c>
       <c r="G151" t="n">
-        <v>104.2170715332031</v>
+        <v>104.2170791625977</v>
       </c>
       <c r="H151" t="n">
         <v>409012100</v>
@@ -4759,7 +4759,7 @@
         <v>104.75</v>
       </c>
       <c r="G154" t="n">
-        <v>104.7169189453125</v>
+        <v>104.716926574707</v>
       </c>
       <c r="H154" t="n">
         <v>290844200</v>
@@ -4787,7 +4787,7 @@
         <v>109.0199966430664</v>
       </c>
       <c r="G155" t="n">
-        <v>108.9855728149414</v>
+        <v>108.9855651855469</v>
       </c>
       <c r="H155" t="n">
         <v>325559900</v>
@@ -4871,7 +4871,7 @@
         <v>122.8600006103516</v>
       </c>
       <c r="G158" t="n">
-        <v>122.8212051391602</v>
+        <v>122.8211975097656</v>
       </c>
       <c r="H158" t="n">
         <v>318086700</v>
@@ -4899,7 +4899,7 @@
         <v>124.5800018310547</v>
       </c>
       <c r="G159" t="n">
-        <v>124.540657043457</v>
+        <v>124.5406646728516</v>
       </c>
       <c r="H159" t="n">
         <v>302589900</v>
@@ -4927,7 +4927,7 @@
         <v>130</v>
       </c>
       <c r="G160" t="n">
-        <v>129.9589233398438</v>
+        <v>129.9589385986328</v>
       </c>
       <c r="H160" t="n">
         <v>318333600</v>
@@ -4983,7 +4983,7 @@
         <v>128.5</v>
       </c>
       <c r="G162" t="n">
-        <v>128.4594116210938</v>
+        <v>128.4594268798828</v>
       </c>
       <c r="H162" t="n">
         <v>257883600</v>
@@ -5011,7 +5011,7 @@
         <v>123.7399978637695</v>
       </c>
       <c r="G163" t="n">
-        <v>123.7009201049805</v>
+        <v>123.700927734375</v>
       </c>
       <c r="H163" t="n">
         <v>376189100</v>
@@ -5151,7 +5151,7 @@
         <v>117.5899963378906</v>
       </c>
       <c r="G168" t="n">
-        <v>117.5528564453125</v>
+        <v>117.552864074707</v>
       </c>
       <c r="H168" t="n">
         <v>453023300</v>
@@ -5431,7 +5431,7 @@
         <v>119.0999984741211</v>
       </c>
       <c r="G178" t="n">
-        <v>119.0725708007812</v>
+        <v>119.0725631713867</v>
       </c>
       <c r="H178" t="n">
         <v>238358300</v>
@@ -5459,7 +5459,7 @@
         <v>116.7799987792969</v>
       </c>
       <c r="G179" t="n">
-        <v>116.7531051635742</v>
+        <v>116.7530975341797</v>
       </c>
       <c r="H179" t="n">
         <v>248772300</v>
@@ -5515,7 +5515,7 @@
         <v>113.370002746582</v>
       </c>
       <c r="G181" t="n">
-        <v>113.3438873291016</v>
+        <v>113.3438949584961</v>
       </c>
       <c r="H181" t="n">
         <v>310318900</v>
@@ -5571,7 +5571,7 @@
         <v>116</v>
       </c>
       <c r="G183" t="n">
-        <v>115.9732894897461</v>
+        <v>115.9732818603516</v>
       </c>
       <c r="H183" t="n">
         <v>382462400</v>
@@ -5627,7 +5627,7 @@
         <v>120.870002746582</v>
       </c>
       <c r="G185" t="n">
-        <v>120.842170715332</v>
+        <v>120.8421630859375</v>
       </c>
       <c r="H185" t="n">
         <v>354966800</v>
@@ -5767,7 +5767,7 @@
         <v>117</v>
       </c>
       <c r="G190" t="n">
-        <v>116.9730606079102</v>
+        <v>116.9730529785156</v>
       </c>
       <c r="H190" t="n">
         <v>302094500</v>
@@ -5879,7 +5879,7 @@
         <v>127.7200012207031</v>
       </c>
       <c r="G194" t="n">
-        <v>127.6905899047852</v>
+        <v>127.6905975341797</v>
       </c>
       <c r="H194" t="n">
         <v>346250200</v>
@@ -5935,7 +5935,7 @@
         <v>132.6499938964844</v>
       </c>
       <c r="G196" t="n">
-        <v>132.6194305419922</v>
+        <v>132.6194458007812</v>
       </c>
       <c r="H196" t="n">
         <v>246191600</v>
@@ -5963,7 +5963,7 @@
         <v>134.8099975585938</v>
       </c>
       <c r="G197" t="n">
-        <v>134.7789459228516</v>
+        <v>134.7789611816406</v>
       </c>
       <c r="H197" t="n">
         <v>242311300</v>
@@ -6523,7 +6523,7 @@
         <v>148.8800048828125</v>
       </c>
       <c r="G217" t="n">
-        <v>148.8457336425781</v>
+        <v>148.8457183837891</v>
       </c>
       <c r="H217" t="n">
         <v>207323300</v>
@@ -6579,7 +6579,7 @@
         <v>145.2599945068359</v>
       </c>
       <c r="G219" t="n">
-        <v>145.2265319824219</v>
+        <v>145.2265472412109</v>
       </c>
       <c r="H219" t="n">
         <v>182325600</v>
@@ -6635,7 +6635,7 @@
         <v>146.2700042724609</v>
       </c>
       <c r="G221" t="n">
-        <v>146.2363128662109</v>
+        <v>146.236328125</v>
       </c>
       <c r="H221" t="n">
         <v>191903300</v>
@@ -6663,7 +6663,7 @@
         <v>146.7599945068359</v>
       </c>
       <c r="G222" t="n">
-        <v>146.7261810302734</v>
+        <v>146.7261962890625</v>
       </c>
       <c r="H222" t="n">
         <v>194463300</v>
@@ -6831,7 +6831,7 @@
         <v>141.9499969482422</v>
       </c>
       <c r="G228" t="n">
-        <v>141.9172973632812</v>
+        <v>141.9173126220703</v>
       </c>
       <c r="H228" t="n">
         <v>236406200</v>
@@ -6971,7 +6971,7 @@
         <v>138.6300048828125</v>
       </c>
       <c r="G233" t="n">
-        <v>138.5980682373047</v>
+        <v>138.5980834960938</v>
       </c>
       <c r="H233" t="n">
         <v>171682800</v>
@@ -7027,7 +7027,7 @@
         <v>145.1399993896484</v>
       </c>
       <c r="G235" t="n">
-        <v>145.1065826416016</v>
+        <v>145.1065673828125</v>
       </c>
       <c r="H235" t="n">
         <v>231224300</v>
@@ -7083,7 +7083,7 @@
         <v>142.4400024414062</v>
       </c>
       <c r="G237" t="n">
-        <v>142.4170074462891</v>
+        <v>142.4170227050781</v>
       </c>
       <c r="H237" t="n">
         <v>188505600</v>
@@ -7475,7 +7475,7 @@
         <v>137.0099945068359</v>
       </c>
       <c r="G251" t="n">
-        <v>136.9878845214844</v>
+        <v>136.9878692626953</v>
       </c>
       <c r="H251" t="n">
         <v>170582600</v>
@@ -7531,7 +7531,7 @@
         <v>185.6399993896484</v>
       </c>
       <c r="G253" t="n">
-        <v>184.0814819335938</v>
+        <v>184.0814971923828</v>
       </c>
       <c r="H253" t="n">
         <v>82488700</v>
@@ -7587,7 +7587,7 @@
         <v>181.9100036621094</v>
       </c>
       <c r="G255" t="n">
-        <v>180.3828125</v>
+        <v>180.3828430175781</v>
       </c>
       <c r="H255" t="n">
         <v>71983600</v>
@@ -7643,7 +7643,7 @@
         <v>185.5599975585938</v>
       </c>
       <c r="G257" t="n">
-        <v>184.0021667480469</v>
+        <v>184.0021820068359</v>
       </c>
       <c r="H257" t="n">
         <v>59144500</v>
@@ -7727,7 +7727,7 @@
         <v>185.5899963378906</v>
       </c>
       <c r="G260" t="n">
-        <v>184.0319061279297</v>
+        <v>184.0318908691406</v>
       </c>
       <c r="H260" t="n">
         <v>49128400</v>
@@ -7755,7 +7755,7 @@
         <v>185.9199981689453</v>
       </c>
       <c r="G261" t="n">
-        <v>184.359130859375</v>
+        <v>184.3591461181641</v>
       </c>
       <c r="H261" t="n">
         <v>40477800</v>
@@ -7811,7 +7811,7 @@
         <v>182.6799926757812</v>
       </c>
       <c r="G263" t="n">
-        <v>181.1463470458984</v>
+        <v>181.1463623046875</v>
       </c>
       <c r="H263" t="n">
         <v>47317400</v>
@@ -7867,7 +7867,7 @@
         <v>191.5599975585938</v>
       </c>
       <c r="G265" t="n">
-        <v>189.9517822265625</v>
+        <v>189.9517974853516</v>
       </c>
       <c r="H265" t="n">
         <v>68903000</v>
@@ -7951,7 +7951,7 @@
         <v>194.5</v>
       </c>
       <c r="G268" t="n">
-        <v>192.8671417236328</v>
+        <v>192.8671264648438</v>
       </c>
       <c r="H268" t="n">
         <v>53631300</v>
@@ -8035,7 +8035,7 @@
         <v>191.7299957275391</v>
       </c>
       <c r="G271" t="n">
-        <v>190.1203918457031</v>
+        <v>190.1203765869141</v>
       </c>
       <c r="H271" t="n">
         <v>47145600</v>
@@ -8147,7 +8147,7 @@
         <v>185.8500061035156</v>
       </c>
       <c r="G275" t="n">
-        <v>184.2897338867188</v>
+        <v>184.2897491455078</v>
       </c>
       <c r="H275" t="n">
         <v>102551700</v>
@@ -8231,7 +8231,7 @@
         <v>189.4100036621094</v>
       </c>
       <c r="G278" t="n">
-        <v>187.8198547363281</v>
+        <v>187.8198699951172</v>
       </c>
       <c r="H278" t="n">
         <v>53439000</v>
@@ -8259,7 +8259,7 @@
         <v>188.3200073242188</v>
       </c>
       <c r="G279" t="n">
-        <v>186.739013671875</v>
+        <v>186.7389984130859</v>
       </c>
       <c r="H279" t="n">
         <v>40962000</v>
@@ -8511,7 +8511,7 @@
         <v>184.3699951171875</v>
       </c>
       <c r="G288" t="n">
-        <v>183.0554351806641</v>
+        <v>183.0554504394531</v>
       </c>
       <c r="H288" t="n">
         <v>52292200</v>
@@ -8567,7 +8567,7 @@
         <v>181.1600036621094</v>
       </c>
       <c r="G290" t="n">
-        <v>179.8683319091797</v>
+        <v>179.8683471679688</v>
       </c>
       <c r="H290" t="n">
         <v>40867400</v>
@@ -8707,7 +8707,7 @@
         <v>175.1000061035156</v>
       </c>
       <c r="G295" t="n">
-        <v>173.8515472412109</v>
+        <v>173.8515625</v>
       </c>
       <c r="H295" t="n">
         <v>81510100</v>
@@ -8735,7 +8735,7 @@
         <v>170.1199951171875</v>
       </c>
       <c r="G296" t="n">
-        <v>168.9070434570312</v>
+        <v>168.9070281982422</v>
       </c>
       <c r="H296" t="n">
         <v>95132400</v>
@@ -8763,7 +8763,7 @@
         <v>169.1199951171875</v>
       </c>
       <c r="G297" t="n">
-        <v>167.9141845703125</v>
+        <v>167.9141693115234</v>
       </c>
       <c r="H297" t="n">
         <v>68587700</v>
@@ -8791,7 +8791,7 @@
         <v>169</v>
       </c>
       <c r="G298" t="n">
-        <v>167.7950286865234</v>
+        <v>167.7950439453125</v>
       </c>
       <c r="H298" t="n">
         <v>71765100</v>
@@ -8847,7 +8847,7 @@
         <v>172.75</v>
       </c>
       <c r="G300" t="n">
-        <v>171.518310546875</v>
+        <v>171.5182952880859</v>
       </c>
       <c r="H300" t="n">
         <v>60139500</v>
@@ -8875,7 +8875,7 @@
         <v>173.2299957275391</v>
       </c>
       <c r="G301" t="n">
-        <v>171.994873046875</v>
+        <v>171.9948883056641</v>
       </c>
       <c r="H301" t="n">
         <v>59825400</v>
@@ -8903,7 +8903,7 @@
         <v>171.1300048828125</v>
       </c>
       <c r="G302" t="n">
-        <v>169.9098510742188</v>
+        <v>169.9098663330078</v>
       </c>
       <c r="H302" t="n">
         <v>52488700</v>
@@ -8931,7 +8931,7 @@
         <v>173</v>
       </c>
       <c r="G303" t="n">
-        <v>171.7665252685547</v>
+        <v>171.7665100097656</v>
       </c>
       <c r="H303" t="n">
         <v>72913500</v>
@@ -8987,7 +8987,7 @@
         <v>173.7200012207031</v>
       </c>
       <c r="G305" t="n">
-        <v>172.4813842773438</v>
+        <v>172.4814147949219</v>
       </c>
       <c r="H305" t="n">
         <v>75604200</v>
@@ -9043,7 +9043,7 @@
         <v>178.6699981689453</v>
       </c>
       <c r="G307" t="n">
-        <v>177.3960876464844</v>
+        <v>177.3960723876953</v>
       </c>
       <c r="H307" t="n">
         <v>53423100</v>
@@ -9183,7 +9183,7 @@
         <v>173.3099975585938</v>
       </c>
       <c r="G312" t="n">
-        <v>172.0742950439453</v>
+        <v>172.0743103027344</v>
       </c>
       <c r="H312" t="n">
         <v>60273300</v>
@@ -9211,7 +9211,7 @@
         <v>171.4799957275391</v>
       </c>
       <c r="G313" t="n">
-        <v>170.2573547363281</v>
+        <v>170.2573699951172</v>
       </c>
       <c r="H313" t="n">
         <v>65672700</v>
@@ -9239,7 +9239,7 @@
         <v>170.0299987792969</v>
       </c>
       <c r="G314" t="n">
-        <v>168.8176879882812</v>
+        <v>168.8177032470703</v>
       </c>
       <c r="H314" t="n">
         <v>46240500</v>
@@ -9295,7 +9295,7 @@
         <v>169.6499938964844</v>
       </c>
       <c r="G316" t="n">
-        <v>168.4403991699219</v>
+        <v>168.4404144287109</v>
       </c>
       <c r="H316" t="n">
         <v>47691700</v>
@@ -9435,7 +9435,7 @@
         <v>167.7799987792969</v>
       </c>
       <c r="G321" t="n">
-        <v>166.5837249755859</v>
+        <v>166.583740234375</v>
       </c>
       <c r="H321" t="n">
         <v>49709300</v>
@@ -9463,7 +9463,7 @@
         <v>175.0399932861328</v>
       </c>
       <c r="G322" t="n">
-        <v>173.7919921875</v>
+        <v>173.7919769287109</v>
       </c>
       <c r="H322" t="n">
         <v>91070300</v>
@@ -9575,7 +9575,7 @@
         <v>168</v>
       </c>
       <c r="G326" t="n">
-        <v>166.8021697998047</v>
+        <v>166.8021545410156</v>
       </c>
       <c r="H326" t="n">
         <v>50901200</v>
@@ -9631,7 +9631,7 @@
         <v>165</v>
       </c>
       <c r="G328" t="n">
-        <v>163.8235778808594</v>
+        <v>163.8235626220703</v>
       </c>
       <c r="H328" t="n">
         <v>68149400</v>
@@ -9659,7 +9659,7 @@
         <v>165.8399963378906</v>
       </c>
       <c r="G329" t="n">
-        <v>164.6575469970703</v>
+        <v>164.6575775146484</v>
       </c>
       <c r="H329" t="n">
         <v>48116400</v>
@@ -9687,7 +9687,7 @@
         <v>166.8999938964844</v>
       </c>
       <c r="G330" t="n">
-        <v>165.7100372314453</v>
+        <v>165.7100219726562</v>
       </c>
       <c r="H330" t="n">
         <v>49537800</v>
@@ -9715,7 +9715,7 @@
         <v>169.0200042724609</v>
       </c>
       <c r="G331" t="n">
-        <v>167.8149108886719</v>
+        <v>167.8148956298828</v>
       </c>
       <c r="H331" t="n">
         <v>48251800</v>
@@ -9771,7 +9771,7 @@
         <v>169.3000030517578</v>
       </c>
       <c r="G333" t="n">
-        <v>168.0929107666016</v>
+        <v>168.0928955078125</v>
       </c>
       <c r="H333" t="n">
         <v>44838400</v>
@@ -9827,7 +9827,7 @@
         <v>170.3300018310547</v>
       </c>
       <c r="G335" t="n">
-        <v>169.1155548095703</v>
+        <v>169.1155395507812</v>
       </c>
       <c r="H335" t="n">
         <v>65934800</v>
@@ -9855,7 +9855,7 @@
         <v>169.3000030517578</v>
       </c>
       <c r="G336" t="n">
-        <v>168.0929107666016</v>
+        <v>168.0928955078125</v>
       </c>
       <c r="H336" t="n">
         <v>50383100</v>
@@ -9883,7 +9883,7 @@
         <v>173.0299987792969</v>
       </c>
       <c r="G337" t="n">
-        <v>171.7962951660156</v>
+        <v>171.7963104248047</v>
       </c>
       <c r="H337" t="n">
         <v>94214900</v>
@@ -9939,7 +9939,7 @@
         <v>181.7100067138672</v>
       </c>
       <c r="G339" t="n">
-        <v>180.4144439697266</v>
+        <v>180.4144287109375</v>
       </c>
       <c r="H339" t="n">
         <v>78569700</v>
@@ -9967,7 +9967,7 @@
         <v>182.3999938964844</v>
       </c>
       <c r="G340" t="n">
-        <v>181.0994873046875</v>
+        <v>181.0995025634766</v>
       </c>
       <c r="H340" t="n">
         <v>77305800</v>
@@ -10023,7 +10023,7 @@
         <v>184.5700073242188</v>
       </c>
       <c r="G342" t="n">
-        <v>183.2540435791016</v>
+        <v>183.2540588378906</v>
       </c>
       <c r="H342" t="n">
         <v>48983000</v>
@@ -10079,7 +10079,7 @@
         <v>186.2799987792969</v>
       </c>
       <c r="G344" t="n">
-        <v>185.2026824951172</v>
+        <v>185.2026977539062</v>
       </c>
       <c r="H344" t="n">
         <v>72044800</v>
@@ -10471,7 +10471,7 @@
         <v>194.0299987792969</v>
       </c>
       <c r="G358" t="n">
-        <v>192.9078826904297</v>
+        <v>192.9078674316406</v>
       </c>
       <c r="H358" t="n">
         <v>50080500</v>
@@ -10583,7 +10583,7 @@
         <v>196.8899993896484</v>
       </c>
       <c r="G362" t="n">
-        <v>195.7513122558594</v>
+        <v>195.7513275146484</v>
       </c>
       <c r="H362" t="n">
         <v>53103900</v>
@@ -10639,7 +10639,7 @@
         <v>207.1499938964844</v>
       </c>
       <c r="G364" t="n">
-        <v>205.9519958496094</v>
+        <v>205.9519805908203</v>
       </c>
       <c r="H364" t="n">
         <v>172373300</v>
@@ -10807,7 +10807,7 @@
         <v>209.6799926757812</v>
       </c>
       <c r="G370" t="n">
-        <v>208.4673461914062</v>
+        <v>208.4673614501953</v>
       </c>
       <c r="H370" t="n">
         <v>86172500</v>
@@ -10863,7 +10863,7 @@
         <v>208.1399993896484</v>
       </c>
       <c r="G372" t="n">
-        <v>206.936279296875</v>
+        <v>206.9362640380859</v>
       </c>
       <c r="H372" t="n">
         <v>80727000</v>
@@ -10919,7 +10919,7 @@
         <v>213.25</v>
       </c>
       <c r="G374" t="n">
-        <v>212.0167236328125</v>
+        <v>212.0167083740234</v>
       </c>
       <c r="H374" t="n">
         <v>66213200</v>
@@ -11031,7 +11031,7 @@
         <v>220.2700042724609</v>
       </c>
       <c r="G378" t="n">
-        <v>218.9961242675781</v>
+        <v>218.9961090087891</v>
       </c>
       <c r="H378" t="n">
         <v>58046200</v>
@@ -11059,7 +11059,7 @@
         <v>221.5500030517578</v>
       </c>
       <c r="G379" t="n">
-        <v>220.2687072753906</v>
+        <v>220.2687225341797</v>
       </c>
       <c r="H379" t="n">
         <v>37369800</v>
@@ -11087,7 +11087,7 @@
         <v>226.3399963378906</v>
       </c>
       <c r="G380" t="n">
-        <v>225.0310211181641</v>
+        <v>225.0310363769531</v>
       </c>
       <c r="H380" t="n">
         <v>60412400</v>
@@ -11171,7 +11171,7 @@
         <v>232.9799957275391</v>
       </c>
       <c r="G383" t="n">
-        <v>231.6325988769531</v>
+        <v>231.6326141357422</v>
       </c>
       <c r="H383" t="n">
         <v>62627700</v>
@@ -11283,7 +11283,7 @@
         <v>234.8200073242188</v>
       </c>
       <c r="G387" t="n">
-        <v>233.4619903564453</v>
+        <v>233.4620056152344</v>
       </c>
       <c r="H387" t="n">
         <v>43234300</v>
@@ -11339,7 +11339,7 @@
         <v>224.1799926757812</v>
       </c>
       <c r="G389" t="n">
-        <v>222.8834991455078</v>
+        <v>222.8835144042969</v>
       </c>
       <c r="H389" t="n">
         <v>66034600</v>
@@ -11367,7 +11367,7 @@
         <v>224.3099975585938</v>
       </c>
       <c r="G390" t="n">
-        <v>223.0127563476562</v>
+        <v>223.0127410888672</v>
       </c>
       <c r="H390" t="n">
         <v>49151500</v>
@@ -11423,7 +11423,7 @@
         <v>225.0099945068359</v>
       </c>
       <c r="G392" t="n">
-        <v>223.7087097167969</v>
+        <v>223.7086944580078</v>
       </c>
       <c r="H392" t="n">
         <v>39960300</v>
@@ -11535,7 +11535,7 @@
         <v>218.2400054931641</v>
       </c>
       <c r="G396" t="n">
-        <v>216.9778442382812</v>
+        <v>216.9778594970703</v>
       </c>
       <c r="H396" t="n">
         <v>36311800</v>
